--- a/resource/MIGUNANI WEB.xlsx
+++ b/resource/MIGUNANI WEB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Kekurangan PUBLIC</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Ini yang dimaksud yg mana ya rid?Yang di master data-&gt;personal email itu atau bukan yow?</t>
   </si>
   <si>
     <t>Our Client -&gt; link</t>
@@ -168,10 +171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -179,7 +182,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.4291497975709"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.17004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -206,25 +210,31 @@
       <c r="E2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
@@ -233,28 +243,28 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
@@ -262,7 +272,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
